--- a/GVGAI/Configuraciones Aprendizaje.xlsx
+++ b/GVGAI/Configuraciones Aprendizaje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadhuelva-my.sharepoint.com/personal/victormanuel_rodriguez607_alu_uhu_es/Documents/UHU/2020-2021/APRENDIZAJE AUTOMATICO/QLearning-GVGAI80/GVGAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D2F04E46CFB4ACB3E201785D2C2C8683EDF1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16BE5AB8-E5FE-41E8-BA96-80B0694286AE}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4D2F04E46CFB4ACB3E201785D2C2C8683EDF1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{718CE0A6-8A51-4EBB-BF0C-D16D2B586C12}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2460" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-25404" yWindow="-1764" windowWidth="21600" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
-    <t>randomQTable</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -51,13 +48,16 @@
     <t>Épocas Training</t>
   </si>
   <si>
-    <t>Política q</t>
+    <t xml:space="preserve">Política </t>
+  </si>
+  <si>
+    <t>RandomQTable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,12 +113,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -128,6 +131,10 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -149,7 +156,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="0" xr9:uid="{2A4C2C15-388E-4846-9A07-D50CC12B68D0}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -165,11 +174,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97873A31-CC9A-40A0-91CB-FE930B6DAA8A}" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Encabezado 1">
   <autoFilter ref="A1:E6" xr:uid="{6C1B425A-76C6-4BE1-B76D-E5C1D18B36DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4BB6E7C7-7039-4CF9-A850-168067BF44BD}" name="randomQTable" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4BB6E7C7-7039-4CF9-A850-168067BF44BD}" name="RandomQTable" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{98928A4A-270A-4627-A7D8-4DE85523A981}" name="Épocas Training" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{04B30399-A0AC-4655-9E60-E5443B15D8E7}" name="Política q" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FE41516A-C404-4F29-BAA5-A373CB2FDC4E}" name="alpha" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{85A20FAB-27B4-452D-9EB9-97D845E8EED5}" name="gamma" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{FE41516A-C404-4F29-BAA5-A373CB2FDC4E}" name="alpha" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{85A20FAB-27B4-452D-9EB9-97D845E8EED5}" name="gamma" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D8D17F6D-E1D8-45CE-8A18-A17873213AD3}" name="Política " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,123 +447,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>500</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="2">
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="2">
         <v>0.3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>500</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="2">
+        <v>0.1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="2">
         <v>0.2</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+      <c r="C4" s="2">
+        <v>0.3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="2">
         <v>0.2</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
+      <c r="C5" s="2">
+        <v>0.1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="2">
         <v>0.2</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="C6" s="2">
+        <v>0.1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="2">
         <v>0.2</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
